--- a/get from CE offices by whatsapp/orginal/CE HGB/CE HGB WRD APUR all basin report.xlsx
+++ b/get from CE offices by whatsapp/orginal/CE HGB/CE HGB WRD APUR all basin report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5E8365-A3B8-4D31-9B37-84EB0E6A1238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A242ECF-46AD-4F27-B9B6-B6207CFBC3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8441,6 +8441,22 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="39" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8453,16 +8469,7 @@
     <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -8470,6 +8477,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8500,22 +8516,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="39" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -8826,7 +8826,7 @@
   <dimension ref="A1:BE27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8838,8 +8838,8 @@
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="149" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="149" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="129" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="129" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" style="15" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
@@ -8854,13 +8854,13 @@
       <c r="C1" s="108" t="s">
         <v>2058</v>
       </c>
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="E1" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F1" s="146">
+      <c r="F1" s="126">
         <v>91</v>
       </c>
       <c r="G1" s="108">
@@ -8872,7 +8872,7 @@
       <c r="I1" s="46" t="s">
         <v>2493</v>
       </c>
-      <c r="J1" s="147">
+      <c r="J1" s="127">
         <v>45808</v>
       </c>
       <c r="K1" s="77"/>
@@ -8933,13 +8933,13 @@
       <c r="C2" s="108" t="s">
         <v>2518</v>
       </c>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E2" s="146" t="s">
+      <c r="E2" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F2" s="146">
+      <c r="F2" s="126">
         <v>91</v>
       </c>
       <c r="G2" s="108">
@@ -8951,7 +8951,7 @@
       <c r="I2" s="46" t="s">
         <v>2494</v>
       </c>
-      <c r="J2" s="147">
+      <c r="J2" s="127">
         <v>47269</v>
       </c>
       <c r="K2" s="75"/>
@@ -9012,13 +9012,13 @@
       <c r="C3" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F3" s="146">
+      <c r="F3" s="126">
         <v>91</v>
       </c>
       <c r="G3" s="108">
@@ -9030,7 +9030,7 @@
       <c r="I3" s="46" t="s">
         <v>2495</v>
       </c>
-      <c r="J3" s="147">
+      <c r="J3" s="127">
         <v>48272</v>
       </c>
       <c r="K3" s="75"/>
@@ -9091,13 +9091,13 @@
       <c r="C4" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F4" s="146">
+      <c r="F4" s="126">
         <v>91</v>
       </c>
       <c r="G4" s="108">
@@ -9109,7 +9109,7 @@
       <c r="I4" s="46" t="s">
         <v>2496</v>
       </c>
-      <c r="J4" s="147">
+      <c r="J4" s="127">
         <v>51682</v>
       </c>
       <c r="K4" s="75"/>
@@ -9170,13 +9170,13 @@
       <c r="C5" s="108" t="s">
         <v>2072</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F5" s="146">
+      <c r="F5" s="126">
         <v>91</v>
       </c>
       <c r="G5" s="108">
@@ -9188,7 +9188,7 @@
       <c r="I5" s="46" t="s">
         <v>2497</v>
       </c>
-      <c r="J5" s="147">
+      <c r="J5" s="127">
         <v>52170</v>
       </c>
       <c r="K5" s="75"/>
@@ -9249,13 +9249,13 @@
       <c r="C6" s="108" t="s">
         <v>2517</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E6" s="146" t="s">
+      <c r="E6" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F6" s="146">
+      <c r="F6" s="126">
         <v>91</v>
       </c>
       <c r="G6" s="108">
@@ -9267,7 +9267,7 @@
       <c r="I6" s="46" t="s">
         <v>2498</v>
       </c>
-      <c r="J6" s="147">
+      <c r="J6" s="127">
         <v>45991</v>
       </c>
       <c r="K6" s="75"/>
@@ -9328,13 +9328,13 @@
       <c r="C7" s="108" t="s">
         <v>2517</v>
       </c>
-      <c r="D7" s="146" t="s">
+      <c r="D7" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E7" s="146" t="s">
+      <c r="E7" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F7" s="146">
+      <c r="F7" s="126">
         <v>91</v>
       </c>
       <c r="G7" s="108">
@@ -9346,7 +9346,7 @@
       <c r="I7" s="46" t="s">
         <v>2499</v>
       </c>
-      <c r="J7" s="147">
+      <c r="J7" s="127">
         <v>57192</v>
       </c>
       <c r="K7" s="75"/>
@@ -9407,13 +9407,13 @@
       <c r="C8" s="108" t="s">
         <v>2517</v>
       </c>
-      <c r="D8" s="146" t="s">
+      <c r="D8" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E8" s="146" t="s">
+      <c r="E8" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F8" s="146">
+      <c r="F8" s="126">
         <v>91</v>
       </c>
       <c r="G8" s="108">
@@ -9425,7 +9425,7 @@
       <c r="I8" s="46" t="s">
         <v>2500</v>
       </c>
-      <c r="J8" s="147">
+      <c r="J8" s="127">
         <v>57649</v>
       </c>
       <c r="K8" s="75"/>
@@ -9486,13 +9486,13 @@
       <c r="C9" s="108" t="s">
         <v>2394</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E9" s="146" t="s">
+      <c r="E9" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F9" s="146">
+      <c r="F9" s="126">
         <v>91</v>
       </c>
       <c r="G9" s="108">
@@ -9504,7 +9504,7 @@
       <c r="I9" s="46" t="s">
         <v>2501</v>
       </c>
-      <c r="J9" s="147">
+      <c r="J9" s="127">
         <v>45596</v>
       </c>
       <c r="K9" s="75"/>
@@ -9565,13 +9565,13 @@
       <c r="C10" s="108" t="s">
         <v>2086</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="D10" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E10" s="146" t="s">
+      <c r="E10" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F10" s="146">
+      <c r="F10" s="126">
         <v>91</v>
       </c>
       <c r="G10" s="108">
@@ -9583,7 +9583,7 @@
       <c r="I10" s="46" t="s">
         <v>2502</v>
       </c>
-      <c r="J10" s="147">
+      <c r="J10" s="127">
         <v>46568</v>
       </c>
       <c r="K10" s="75"/>
@@ -9644,13 +9644,13 @@
       <c r="C11" t="s">
         <v>2525</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F11" s="146">
+      <c r="F11" s="126">
         <v>91</v>
       </c>
       <c r="G11" s="108">
@@ -9659,10 +9659,10 @@
       <c r="H11" s="106" t="s">
         <v>2519</v>
       </c>
-      <c r="I11" s="151" t="s">
+      <c r="I11" s="131" t="s">
         <v>2520</v>
       </c>
-      <c r="J11" s="147">
+      <c r="J11" s="127">
         <v>45838</v>
       </c>
       <c r="K11" s="75"/>
@@ -9723,13 +9723,13 @@
       <c r="C12" t="s">
         <v>2525</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F12" s="146">
+      <c r="F12" s="126">
         <v>91</v>
       </c>
       <c r="G12" s="108">
@@ -9741,7 +9741,7 @@
       <c r="I12" s="46" t="s">
         <v>2503</v>
       </c>
-      <c r="J12" s="147">
+      <c r="J12" s="127">
         <v>46873</v>
       </c>
       <c r="K12" s="75"/>
@@ -9802,13 +9802,13 @@
       <c r="C13" t="s">
         <v>2525</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F13" s="146">
+      <c r="F13" s="126">
         <v>91</v>
       </c>
       <c r="G13" s="108">
@@ -9820,7 +9820,7 @@
       <c r="I13" s="46" t="s">
         <v>2504</v>
       </c>
-      <c r="J13" s="147">
+      <c r="J13" s="127">
         <v>45838</v>
       </c>
     </row>
@@ -9834,25 +9834,25 @@
       <c r="C14" t="s">
         <v>2525</v>
       </c>
-      <c r="D14" s="146" t="s">
+      <c r="D14" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E14" s="146" t="s">
+      <c r="E14" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F14" s="146">
+      <c r="F14" s="126">
         <v>91</v>
       </c>
       <c r="G14" s="108">
         <v>940741642</v>
       </c>
-      <c r="H14" s="148" t="s">
+      <c r="H14" s="128" t="s">
         <v>2481</v>
       </c>
-      <c r="I14" s="148" t="s">
+      <c r="I14" s="128" t="s">
         <v>2505</v>
       </c>
-      <c r="J14" s="147">
+      <c r="J14" s="127">
         <v>45961</v>
       </c>
     </row>
@@ -9866,13 +9866,13 @@
       <c r="C15" t="s">
         <v>2526</v>
       </c>
-      <c r="D15" s="146" t="s">
+      <c r="D15" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E15" s="146" t="s">
+      <c r="E15" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F15" s="146">
+      <c r="F15" s="126">
         <v>91</v>
       </c>
       <c r="G15" s="108">
@@ -9884,7 +9884,7 @@
       <c r="I15" s="46" t="s">
         <v>2506</v>
       </c>
-      <c r="J15" s="147">
+      <c r="J15" s="127">
         <v>46721</v>
       </c>
     </row>
@@ -9898,13 +9898,13 @@
       <c r="C16" t="s">
         <v>2526</v>
       </c>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E16" s="146" t="s">
+      <c r="E16" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F16" s="146">
+      <c r="F16" s="126">
         <v>91</v>
       </c>
       <c r="G16" s="108">
@@ -9916,7 +9916,7 @@
       <c r="I16" s="46" t="s">
         <v>2507</v>
       </c>
-      <c r="J16" s="147">
+      <c r="J16" s="127">
         <v>47330</v>
       </c>
     </row>
@@ -9930,13 +9930,13 @@
       <c r="C17" t="s">
         <v>2526</v>
       </c>
-      <c r="D17" s="146" t="s">
+      <c r="D17" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F17" s="146">
+      <c r="F17" s="126">
         <v>91</v>
       </c>
       <c r="G17" s="108">
@@ -9948,7 +9948,7 @@
       <c r="I17" s="46" t="s">
         <v>2508</v>
       </c>
-      <c r="J17" s="147">
+      <c r="J17" s="127">
         <v>47208</v>
       </c>
     </row>
@@ -9962,13 +9962,13 @@
       <c r="C18" t="s">
         <v>2526</v>
       </c>
-      <c r="D18" s="146" t="s">
+      <c r="D18" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="E18" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F18" s="146">
+      <c r="F18" s="126">
         <v>91</v>
       </c>
       <c r="G18" s="108">
@@ -9980,7 +9980,7 @@
       <c r="I18" s="46" t="s">
         <v>2509</v>
       </c>
-      <c r="J18" s="147">
+      <c r="J18" s="127">
         <v>57891</v>
       </c>
     </row>
@@ -9994,13 +9994,13 @@
       <c r="C19" s="108" t="s">
         <v>2116</v>
       </c>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F19" s="146">
+      <c r="F19" s="126">
         <v>91</v>
       </c>
       <c r="G19" s="108">
@@ -10012,7 +10012,7 @@
       <c r="I19" s="46" t="s">
         <v>2510</v>
       </c>
-      <c r="J19" s="147">
+      <c r="J19" s="127">
         <v>54331</v>
       </c>
     </row>
@@ -10026,13 +10026,13 @@
       <c r="C20" s="108" t="s">
         <v>709</v>
       </c>
-      <c r="D20" s="146" t="s">
+      <c r="D20" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="E20" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F20" s="146">
+      <c r="F20" s="126">
         <v>91</v>
       </c>
       <c r="G20" s="108">
@@ -10044,7 +10044,7 @@
       <c r="I20" s="46" t="s">
         <v>2511</v>
       </c>
-      <c r="J20" s="147">
+      <c r="J20" s="127">
         <v>52078</v>
       </c>
     </row>
@@ -10058,13 +10058,13 @@
       <c r="C21" s="108" t="s">
         <v>709</v>
       </c>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E21" s="146" t="s">
+      <c r="E21" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F21" s="146">
+      <c r="F21" s="126">
         <v>91</v>
       </c>
       <c r="G21" s="108">
@@ -10076,7 +10076,7 @@
       <c r="I21" s="46" t="s">
         <v>2512</v>
       </c>
-      <c r="J21" s="147">
+      <c r="J21" s="127">
         <v>54454</v>
       </c>
     </row>
@@ -10090,25 +10090,25 @@
       <c r="C22" s="108" t="s">
         <v>2126</v>
       </c>
-      <c r="D22" s="146" t="s">
+      <c r="D22" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E22" s="146" t="s">
+      <c r="E22" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F22" s="146">
+      <c r="F22" s="126">
         <v>91</v>
       </c>
       <c r="G22" s="108">
         <v>7354015954</v>
       </c>
-      <c r="H22" s="150" t="s">
+      <c r="H22" s="130" t="s">
         <v>2521</v>
       </c>
-      <c r="I22" s="151" t="s">
+      <c r="I22" s="131" t="s">
         <v>2522</v>
       </c>
-      <c r="J22" s="147">
+      <c r="J22" s="127">
         <v>46538</v>
       </c>
     </row>
@@ -10122,13 +10122,13 @@
       <c r="C23" s="108" t="s">
         <v>2126</v>
       </c>
-      <c r="D23" s="146" t="s">
+      <c r="D23" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E23" s="146" t="s">
+      <c r="E23" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F23" s="146">
+      <c r="F23" s="126">
         <v>91</v>
       </c>
       <c r="G23" s="108">
@@ -10140,7 +10140,7 @@
       <c r="I23" s="46" t="s">
         <v>2513</v>
       </c>
-      <c r="J23" s="147">
+      <c r="J23" s="127">
         <v>52290</v>
       </c>
     </row>
@@ -10154,25 +10154,25 @@
       <c r="C24" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E24" s="146" t="s">
+      <c r="E24" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F24" s="146">
+      <c r="F24" s="126">
         <v>91</v>
       </c>
       <c r="G24" s="108">
         <v>8435837800</v>
       </c>
-      <c r="H24" s="150" t="s">
+      <c r="H24" s="130" t="s">
         <v>2523</v>
       </c>
-      <c r="I24" s="151" t="s">
+      <c r="I24" s="131" t="s">
         <v>2524</v>
       </c>
-      <c r="J24" s="147">
+      <c r="J24" s="127">
         <v>51713</v>
       </c>
     </row>
@@ -10186,13 +10186,13 @@
       <c r="C25" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E25" s="146" t="s">
+      <c r="E25" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F25" s="146">
+      <c r="F25" s="126">
         <v>91</v>
       </c>
       <c r="G25" s="108">
@@ -10204,7 +10204,7 @@
       <c r="I25" s="46" t="s">
         <v>2514</v>
       </c>
-      <c r="J25" s="147">
+      <c r="J25" s="127">
         <v>46538</v>
       </c>
     </row>
@@ -10218,13 +10218,13 @@
       <c r="C26" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="146" t="s">
+      <c r="D26" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E26" s="146" t="s">
+      <c r="E26" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F26" s="146">
+      <c r="F26" s="126">
         <v>91</v>
       </c>
       <c r="G26" s="108">
@@ -10236,7 +10236,7 @@
       <c r="I26" s="46" t="s">
         <v>2515</v>
       </c>
-      <c r="J26" s="147">
+      <c r="J26" s="127">
         <v>53174</v>
       </c>
     </row>
@@ -10250,13 +10250,13 @@
       <c r="C27" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="146" t="s">
+      <c r="D27" s="126" t="s">
         <v>2419</v>
       </c>
-      <c r="E27" s="146" t="s">
+      <c r="E27" s="126" t="s">
         <v>2420</v>
       </c>
-      <c r="F27" s="146">
+      <c r="F27" s="126">
         <v>91</v>
       </c>
       <c r="G27" s="108">
@@ -10268,7 +10268,7 @@
       <c r="I27" s="46" t="s">
         <v>2516</v>
       </c>
-      <c r="J27" s="147">
+      <c r="J27" s="127">
         <v>55731</v>
       </c>
     </row>
@@ -10311,34 +10311,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="140" t="s">
         <v>2055</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:70" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>2056</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -10351,60 +10351,60 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:70" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:70" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
@@ -10414,7 +10414,7 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="132"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -15374,34 +15374,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="140" t="s">
         <v>2387</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:70" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>2388</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -15414,60 +15414,60 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:70" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="126" t="s">
+      <c r="J3" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="126" t="s">
+      <c r="K3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="126" t="s">
+      <c r="L3" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126" t="s">
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:70" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
       <c r="L4" s="101" t="s">
         <v>15</v>
       </c>
@@ -15477,7 +15477,7 @@
       <c r="N4" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="126"/>
+      <c r="O4" s="132"/>
     </row>
     <row r="5" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -20422,34 +20422,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="102" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127" t="s">
+      <c r="B1" s="133"/>
+      <c r="C1" s="133" t="s">
         <v>2145</v>
       </c>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
     </row>
     <row r="2" spans="1:70" s="102" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="134" t="s">
         <v>2146</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="103"/>
       <c r="G2" s="103"/>
       <c r="H2" s="103"/>
@@ -20462,60 +20462,60 @@
       <c r="O2" s="103"/>
     </row>
     <row r="3" spans="1:70" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="I3" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="126" t="s">
+      <c r="J3" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="126" t="s">
+      <c r="K3" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="126" t="s">
+      <c r="L3" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126" t="s">
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:70" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
       <c r="L4" s="101" t="s">
         <v>15</v>
       </c>
@@ -20525,7 +20525,7 @@
       <c r="N4" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="126"/>
+      <c r="O4" s="132"/>
     </row>
     <row r="5" spans="1:70" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="101">
@@ -22512,34 +22512,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -22552,60 +22552,60 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
@@ -22615,7 +22615,7 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="132"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -23657,9 +23657,9 @@
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="134"/>
-      <c r="N32" s="134"/>
-      <c r="O32" s="134"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -23674,22 +23674,17 @@
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="139"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M34" s="130"/>
-      <c r="N34" s="130"/>
-      <c r="O34" s="130"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="M32:O32"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="M34:O34"/>
     <mergeCell ref="C1:O1"/>
@@ -23704,6 +23699,11 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="M32:O32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
@@ -23739,34 +23739,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="140" t="s">
         <v>574</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>575</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -23779,60 +23779,60 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
@@ -23842,7 +23842,7 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="132"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -34110,34 +34110,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="143" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -34150,60 +34150,60 @@
       <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
@@ -34213,7 +34213,7 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="132"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -36717,34 +36717,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
     </row>
     <row r="2" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="146" t="s">
         <v>342</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
@@ -36757,60 +36757,60 @@
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="132" t="s">
+      <c r="F3" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
@@ -36820,7 +36820,7 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="132"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -38600,34 +38600,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="143" t="s">
         <v>399</v>
       </c>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="143"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
     </row>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="144" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -38640,60 +38640,60 @@
       <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
@@ -38703,7 +38703,7 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="132"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -42149,34 +42149,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="142" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="148" t="s">
         <v>1461</v>
       </c>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="142"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
     </row>
     <row r="2" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="149" t="s">
         <v>1462</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -42189,60 +42189,60 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="147" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="141" t="s">
+      <c r="E3" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="145" t="s">
+      <c r="G3" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="141" t="s">
+      <c r="I3" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="141" t="s">
+      <c r="J3" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="141" t="s">
+      <c r="K3" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="141" t="s">
+      <c r="L3" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141" t="s">
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="141"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
       <c r="L4" s="66" t="s">
         <v>15</v>
       </c>
@@ -42252,7 +42252,7 @@
       <c r="N4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="141"/>
+      <c r="O4" s="147"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5" s="66">
@@ -45274,34 +45274,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="131" t="s">
+      <c r="B1" s="137"/>
+      <c r="C1" s="140" t="s">
         <v>1746</v>
       </c>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
     </row>
     <row r="2" spans="1:15" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="138" t="s">
         <v>1747</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -45314,60 +45314,60 @@
       <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="136" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="133" t="s">
+      <c r="F3" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="132" t="s">
+      <c r="I3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="132" t="s">
+      <c r="J3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="132" t="s">
+      <c r="L3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
       <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
@@ -45377,7 +45377,7 @@
       <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="132"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
